--- a/KatalonData/ABPTestData/SchedulePaymentABP_NoCF.xlsx
+++ b/KatalonData/ABPTestData/SchedulePaymentABP_NoCF.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F001E0E2-846D-4705-938E-B1A6DBECB075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{61DA1CC7-D086-4C6C-8D86-272F6095010B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="CVCSPNoCFPS_RecMonthly" sheetId="1" r:id="rId1"/>
-    <sheet name="CVCSPNoCFCC_RecMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="CVCSPNoCFPC_RecMonthly" sheetId="3" r:id="rId3"/>
-    <sheet name="CVCSPNoCFCorp_RecMonthly" sheetId="4" r:id="rId4"/>
+    <sheet name="CVCSPNoCFPS_RecMonthly" r:id="rId1" sheetId="1"/>
+    <sheet name="CVCSPNoCFCC_RecMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="CVCSPNoCFPC_RecMonthly" r:id="rId3" sheetId="3"/>
+    <sheet name="CVCSPNoCFCorp_RecMonthly" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
   <si>
     <t>Result</t>
   </si>
@@ -132,6 +132,12 @@
     <t>Thu Oct 09 00:37:53 IST 2025</t>
   </si>
   <si>
+    <t>Thu Oct 09 01:48:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 14:58:06 IST 2025</t>
+  </si>
+  <si>
     <t>Scheduled Payment--View the Information,
 180RemittanceID: 916-151942,
 1. Review bill to pay,
@@ -153,10 +159,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $</t>
-  </si>
-  <si>
-    <t>Thu Oct 09 01:21:40 IST 2025</t>
+4. Payment Plan,Monthly payments of $</t>
   </si>
   <si>
     <t>Scheduled Payment--View the Information,
@@ -181,10 +184,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $</t>
-  </si>
-  <si>
-    <t>Thu Oct 09 01:48:21 IST 2025</t>
+4. Payment Plan,Monthly payments of $</t>
   </si>
   <si>
     <t>Scheduled Payment--View the Information,
@@ -211,7 +211,16 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $</t>
+4. Payment Plan,Monthly payments of $</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Oct 15 16:55:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 16:57:56 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -280,46 +289,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -336,10 +345,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -374,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -409,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -503,21 +512,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -534,7 +543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -586,15 +595,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:P2"/>
@@ -602,10 +611,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="23.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -690,7 +699,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/10/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -722,7 +731,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $10.00 on 10/10/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/10/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,Monthly payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -730,13 +739,13 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/10/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -744,21 +753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CD28ED-6B88-4076-A023-4B2AA175CC49}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CD28ED-6B88-4076-A023-4B2AA175CC49}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.453125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7265625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.6328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.453125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="23.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,12 +817,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -839,11 +848,11 @@
         <v>19</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/10/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -852,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="9" t="str">
-        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" on "&amp;L2&amp;","&amp;P2</f>
+        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" starting on "&amp;L2&amp;","&amp;P2</f>
         <v>Scheduled Payment--View the Information,
 180RemittanceID: 916-151942,
 1. Review bill to pay,
@@ -874,7 +883,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $10.00 on 10/10/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/10/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,Monthly payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -882,30 +891,30 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/10/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E6C38-F14D-4B06-9F0D-017FEF3E0BF1}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E6C38-F14D-4B06-9F0D-017FEF3E0BF1}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="32.90625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="32.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -986,11 +995,11 @@
         <v>19</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/10/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -999,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="9" t="str">
-        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" on "&amp;L2&amp;","&amp;P2</f>
+        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" starting on "&amp;L2&amp;","&amp;P2</f>
         <v>Scheduled Payment--View the Information,
 180RemittanceID: 916-151942,
 1. Review bill to pay,
@@ -1022,7 +1031,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $10.00 on 10/10/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/10/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,Monthly payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1030,30 +1039,30 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/10/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACB12DE-9459-4B21-A76D-74D1C2CFA77A}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACB12DE-9459-4B21-A76D-74D1C2CFA77A}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="20.81640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="20.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,12 +1112,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -1138,7 +1147,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/10/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1147,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="9" t="str">
-        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" on "&amp;L2&amp;","&amp;P2</f>
+        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" starting on "&amp;L2&amp;","&amp;P2</f>
         <v>Scheduled Payment--View the Information,
 180RemittanceID: 916-151942,
 1. Review bill to pay,
@@ -1172,7 +1181,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $10.00 on 10/10/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/10/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,Monthly payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1180,12 +1189,12 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/10/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/ABPTestData/SchedulePaymentABP_NoCF.xlsx
+++ b/KatalonData/ABPTestData/SchedulePaymentABP_NoCF.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
   <si>
     <t>Result</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>Wed Oct 15 16:57:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 12:12:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 12:16:42 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -669,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -1117,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">

--- a/KatalonData/ABPTestData/SchedulePaymentABP_NoCF.xlsx
+++ b/KatalonData/ABPTestData/SchedulePaymentABP_NoCF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t470258\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{61DA1CC7-D086-4C6C-8D86-272F6095010B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4C57AE5B-CA0B-43A5-8CB0-ABB6D4F0843E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView windowHeight="11500" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="CVCSPNoCFPS_RecMonthly" r:id="rId1" sheetId="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
   <si>
     <t>Result</t>
   </si>
@@ -102,40 +102,6 @@
   </si>
   <si>
     <t>Monthly</t>
-  </si>
-  <si>
-    <t>Scheduled Payment--View the Information,
-180RemittanceID: 916-151942,
-1. Review bill to pay,
-Bills Label,	Due Date,	Date Submitted,	Date Modified,	Amount Due,	Amount to Pay,
-ImtiazABPnoCF916,	 EST, 	
-UDF1:,	udf data 1,
-UDF2:,	udf data 2,
-UDF3:,	udf3,
-UDF4:,	udf data4,
-2. Payment Method,
-First Name:,Imtiaz,
-Last Name:,Ahmed,
-Routing Number:,****2691,
-Account Number:,****5489,
-Billing Address:,1853 Mandan Terace,
-Greenbelt, Maryland MD 20770,
-Country:,	UNITED STATES,
-Account Type:,	Personal Savings,
-3. Payment Plan Information,
-Payment Plan Type:,	Recurring,
-Payment Plan Duration:,	Monthly,
-Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $</t>
-  </si>
-  <si>
-    <t>Thu Oct 09 00:37:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Oct 09 01:48:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 14:58:06 IST 2025</t>
   </si>
   <si>
     <t>Scheduled Payment--View the Information,
@@ -214,13 +180,50 @@
 4. Payment Plan,Monthly payments of $</t>
   </si>
   <si>
+    <t>Sun Oct 26 19:53:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 20:39:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 20:44:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 13 22:10:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Scheduled Payment--View the Information,
+180RemittanceID: 916-151942,
+1. Review bill to pay,
+Bills Label,	Due Date,	Date Submitted,	Date Modified,	Amount Due,	Amount to Pay,
+ImtiazABPnoCF916,	 EST, 	
+UDF1:,	udf data 1,
+UDF2:,	udf data 2,
+UDF3:,	udf3,
+UDF4:,	udf data4,
+2. Payment Method,
+First Name:,Imtiaz,
+Last Name:,Ahmed,
+Routing Number:,****2691,
+Account Number:,****5489,
+Billing Address:,1853 Mandan Terace,
+Greenbelt, Maryland MD 20770,
+Country:,	UNITED STATES,
+Account Type:,	Personal Savings,
+3. Payment Plan Information,
+Payment Plan Type:,	Recurring,
+Payment Plan Duration:,	Monthly,
+Payment Plan Start Date:,	
+4. Payment Plan,Monthly payments of $</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Oct 15 16:55:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 16:57:56 IST 2025</t>
+    <t>Thu Nov 13 22:25:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 15:00:48 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -695,11 +698,11 @@
         <v>19</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/16/2025</v>
+        <v>11/14/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -708,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="9" t="str">
-        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" on "&amp;L2&amp;","&amp;P2</f>
+        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" starting on "&amp;L2&amp;","&amp;P2</f>
         <v>Scheduled Payment--View the Information,
 180RemittanceID: 916-151942,
 1. Review bill to pay,
@@ -731,7 +734,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,Monthly payments of $10.00 starting on 11/14/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 11/14/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -739,7 +742,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 11/14/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -822,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -848,11 +851,11 @@
         <v>19</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/16/2025</v>
+        <v>11/14/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -883,7 +886,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,Monthly payments of $10.00 starting on 11/14/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 11/14/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -891,7 +894,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 11/14/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -969,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -995,11 +998,11 @@
         <v>19</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/16/2025</v>
+        <v>11/14/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1031,7 +1034,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,Monthly payments of $10.00 starting on 11/14/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 11/14/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1039,7 +1042,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 11/14/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1053,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACB12DE-9459-4B21-A76D-74D1C2CFA77A}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -1117,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -1143,11 +1146,11 @@
         <v>19</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/16/2025</v>
+        <v>11/14/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1181,7 +1184,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Monthly,
 Payment Plan Start Date:,	
-4. Payment Plan,Monthly payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,Monthly payments of $10.00 starting on 11/14/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 11/14/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1189,7 +1192,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 0.00 starting on 11/14/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
